--- a/AireLogicTestsCaseBugs.xlsx
+++ b/AireLogicTestsCaseBugs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-man/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-man/Documents/AireLogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360D2CC6-4939-7543-A225-A45D07165F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71B28B-4E83-1C4C-B82B-0645D9D7A0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="500" windowWidth="16740" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Some more tests" sheetId="1" r:id="rId1"/>
@@ -21,67 +21,518 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Test Cases</t>
   </si>
   <si>
-    <t>Verify reoccuring cookies value when the user adds a factory</t>
-  </si>
-  <si>
     <t>Verify the user can sell a Cookie (Sell cookie functionality)</t>
   </si>
   <si>
-    <t>Verify the Money amount increases when a cookie is sold</t>
-  </si>
-  <si>
     <t>Verify the user is redirected to the homepage when the user clicks on Cookie Clicker linktext</t>
   </si>
   <si>
     <t>Verify High Scores is displayed when the user returns to the homepage</t>
   </si>
   <si>
-    <t>Verify the user is redirected to the Cookie Game page when a user in selected from the player list under high scores</t>
-  </si>
-  <si>
     <t>Every time I refresh the main screen the first player’s highest score gets increased as the game is still running because of the factory</t>
   </si>
   <si>
-    <t>I am able to start a new game with entering a user</t>
-  </si>
-  <si>
     <t>When users money is $0 and they navigate to the main screen then back the Money displays as $0.0 then revert to $0</t>
   </si>
   <si>
-    <t>User can not see an exact number of cookies = number of cookies</t>
-  </si>
-  <si>
-    <t>User can sell negative number of cookies. Eg user can enter -1 in the sell cookie text field and when they click sell cookies is increased by 1 and money is decreased by -0.25</t>
-  </si>
-  <si>
-    <t>Entering a number first and a character in the Buy factory text field and pressing Buy Factories increases Factory by the number entered</t>
-  </si>
-  <si>
-    <t>Entering a number and followed by a character in the Sell Cookies field and clicking Enter deducts the number from Cookies and Mooney is increased</t>
-  </si>
-  <si>
     <t>When a user tries to sell Cookies with a number higher than the number of cookies there is not error message displayed to the user, however there is an Uncaught (in promise) Error: Not enough cookies to sell in console</t>
   </si>
   <si>
-    <t>High Scores is not arranges=d on who has the highest score but it’s displayed based on when the user played the game</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alignment of the player text is not consistent with the other texts but after large number high score the think the text for Player and Score are centre aligned but needs to be verified however the scores are not </t>
   </si>
   <si>
-    <t>Page title is the same on both pages</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Resuts</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a user navigates to the Cookie Clicker homepage and then clicks enter without enetring username. The user is redirected to the Cookie Clicker game page </t>
+  </si>
+  <si>
+    <t>An Error message should be displayed to the user, asking them to enter their name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is redirected to the Cookie Clicker game page </t>
+  </si>
+  <si>
+    <t>User  money displays as $0.0 then revert to $0 when the user has no money</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>1. User is on the Cookie Clicker homepage</t>
+  </si>
+  <si>
+    <t>The amount shown for money should be $0.00</t>
+  </si>
+  <si>
+    <t>The amount shown for money shows as $0.00 then changes to $0</t>
+  </si>
+  <si>
+    <t>When a user as e.g 1 Cookie and they try to sell the cookie, they are not able to do so</t>
+  </si>
+  <si>
+    <t>2. Click On Click Cookie! Button</t>
+  </si>
+  <si>
+    <t>The user should be able to sell the cookie and Cookies should decrease from 1 to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to start a new game without entering a username </t>
+  </si>
+  <si>
+    <t>An Error message should be displayed to the user stating the user cannot sell negative number of cookies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user is not should be able to sell the cookie as nothing happens when they click the Sell Cookies button. 
+Cookies remains as 1 and does not decrease to 0
+Error Log from web console:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Emmanuel:26 Uncaught (in promise) Error: Not enough cookies to sell
+    at rpc (Emmanuel:26:45)
+    at async HTMLButtonElement.&lt;anonymous&gt; (Emmanuel:38:23)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Cookies increase to the positive number of the negative number entered
+The Money decreases by the negative number entered * 0.25
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Image attached</t>
+    </r>
+  </si>
+  <si>
+    <t>https://xn--emmanuel-asmah-2023-03-17-x45o.cookieclickertechtest.airelogic.com/</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>High Scores is not arranged on who has the highest score but it’s displayed based on when the user played the game</t>
+  </si>
+  <si>
+    <t>1. Enter https://xn--emmanuel-asmah-2023-03-17-x45o.cookieclickertechtest.airelogic.com/ url into the browser and Click Enter
+2. Click the Start! Button without entering your name
+3. Observe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Observe the amount of money </t>
+  </si>
+  <si>
+    <t>When a user enters a negative number for cookies to sell and then clicks on Sell Cookies button. The Cookies increase by the negative number enterd and the Money decrease by the number entered * 0.25.
+Example: New user enters -1 for cookies to sell and press enter,  Cookie is set to 1 and money is set to -0.25</t>
+  </si>
+  <si>
+    <t>When a user enters a negative number followed by characters for number of cookies to sell and then clicks on Sell Cookies button. The Cookies increases by the number entered.
+Example: New user enters -2bNC1 for cookies to sell and press enter,  Cookie is set to 2 and money is set to $-0.5</t>
+  </si>
+  <si>
+    <t>When the user as 1 Cookie and the user enters 0.99 as the number of cookies to sell. The Cookie is set to 0 and the Money is set to $0.2475</t>
+  </si>
+  <si>
+    <t>An Error message should be displayed to the user stating the user cannot sell decimal number of cookies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Cookies increase to the positive number of the negative number entered e.d -2 will be set to 2
+The Money decreases by the negative number entered * 0.50
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Image attached</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>User can buy factories with a decimal number</t>
+  </si>
+  <si>
+    <t>User can sell Cookies with a decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Click On Click Cookie! Button
+3. Enter 0.99 into the Sell cookie input text field 
+4. Click Sell Cookies button and observe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. . Enter -2bNC1 into the Sell cookie input text field
+3. Click Sell Cookies button and Observe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. . Enter -1 into the Sell cookie input text field
+3. Click Sell Cookies button and Observe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Click On Click Cookie! Button
+3. Enter 1 into the Sell cookie input text field 
+4. Click Sell Cookies button and observe </t>
+  </si>
+  <si>
+    <t>User can buy factories with a number followed by characters</t>
+  </si>
+  <si>
+    <t>User can sell Cookies with a negative number</t>
+  </si>
+  <si>
+    <t>User can sell Cookies with a negative number followed by characters</t>
+  </si>
+  <si>
+    <t>User cannot sell an exact number of cookies produced</t>
+  </si>
+  <si>
+    <t>When the user enters e.g: 0.50 as the number of factories to buy and clicks on Buy Factories. The number of Factories is increased is set to 0.5 and the Money is set to $-1.5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user is able to sell cookies by entering decimal numbers.
+The Cookies number deceases and the Amount increases
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Image attached</t>
+    </r>
+  </si>
+  <si>
+    <t>No message is displayed to the user when they try to sell a higher number of cookies than the number of cookies produced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Click On Click Cookie! Button
+3. Enter 2 into the Sell cookie input text field 
+4. Click Sell Cookies button and observe </t>
+  </si>
+  <si>
+    <t>An Error message should be displayed to the user stating the user cannot sell a higher number of cookies</t>
+  </si>
+  <si>
+    <t>No Error messages is displayed to the user
+There is no changes to the Number of Cookies or Amount</t>
+  </si>
+  <si>
+    <t>An Error message should be displayed to the user stating the user cannot buy factories with a decimal number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Error message should be displayed to the user stating the user cannot buy factories with the entered input. </t>
+  </si>
+  <si>
+    <t>When a user enters a number followed by characters to buy factories. The number of factories is increase by the leading number entered.
+Example: New user enters 1test for buy factories. Factories is increased by 1.</t>
+  </si>
+  <si>
+    <t>User is able to buy factories
+The number of factories is increase by the leading number entered and the amount is calculated.</t>
+  </si>
+  <si>
+    <t>User with Highest score is not displayed first on the High Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is on the Cooke Clicker homepage
+2. A few players have played the game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Enter 0.50 into the Buy Factories input text field 
+3. Click Buy Factories button and observe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+2. Enter 1test into the Buy Factories! input text field 
+3. Click Buy Factories button and observe </t>
+  </si>
+  <si>
+    <t>1. Enter a username and Click on the Start button
+2. Play the game to get the highest Score
+3. Click on the Cookie Clicker linktext to return to the homepage
+4. Observe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user with the highest score is displayed at the top of the list followed by the next user wth the second highest score </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user with the highest score is added to the highest score table based on when they played the game and not by the the score.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Image attached</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user is able to buy factories by entering decimal numbers.
+The number of factories is set to 0.5 and the Amount is set to -1.5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Image attached</t>
+    </r>
+  </si>
+  <si>
+    <t>Other Bugs To Raise</t>
+  </si>
+  <si>
+    <t>Values for cookies, Factories and money are not displayed properly when a large value is entered</t>
+  </si>
+  <si>
+    <t>Question for BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sould the Page title be the same for the homepage and the Game pag pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the texts on the pages are too close to the edge </t>
+  </si>
+  <si>
+    <t>Should the Game be still be running when the user exits the gmae</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>PASS/FAIL</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When navigates to the Cookie Clicker game page and buys a factory. The value for Cookies should be incresing automatically by the number of factories bought </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Enter 1 into the Buy Factories input text field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+</t>
+  </si>
+  <si>
+    <t>Verify reoccuring cookies value when the user adds a factory (New User)</t>
+  </si>
+  <si>
+    <t>user should be able to enter a value into the text field</t>
+  </si>
+  <si>
+    <t>3. Click Buy Factories button</t>
+  </si>
+  <si>
+    <t>The value for Factories should be increase to 1</t>
+  </si>
+  <si>
+    <t>The value for Cookies should automatically be increasing by 1 every few seconds</t>
+  </si>
+  <si>
+    <t>The money should be set to $-3</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>when a user has enough cookies, they should be able to sell a number of cookies less than or equal the Cookies the have available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify user is redirected to the game age when they click on their names in the high score list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter a username and Click on the Start button
+</t>
+  </si>
+  <si>
+    <t>User should be directed to the Cookie Clicker Game page</t>
+  </si>
+  <si>
+    <t>Number of Cookies increase by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Enter 1 into the Sell cookie input text field </t>
+  </si>
+  <si>
+    <t>4. Click Sell Cookies button</t>
+  </si>
+  <si>
+    <t>Cookies should decease by 1 and set to 0</t>
+  </si>
+  <si>
+    <t>Money should should increase by 0.25</t>
+  </si>
+  <si>
+    <t>When a user clicks on the Cookie Clicker! Linkext on the Cookie Clicker game page. The user should be redirected to the homepage</t>
+  </si>
+  <si>
+    <t>User should be redirected to the Cookie clicker home screen</t>
+  </si>
+  <si>
+    <t>2. Click on the Cookie Clicker! link test at the top of the screen</t>
+  </si>
+  <si>
+    <t>High Scores should be displayed</t>
+  </si>
+  <si>
+    <t>When an existing user click on their name under high score, they should be redirected to the Cookie Clicker game pages</t>
+  </si>
+  <si>
+    <t>A user can play othe users games by clicking on the other users name under high score</t>
+  </si>
+  <si>
+    <t>1. User is on the Cookie Clicker homepage
+2. User is listed on the high score table</t>
+  </si>
+  <si>
+    <t>1. Click on the username for the user in the high score table</t>
+  </si>
+  <si>
+    <t>The user should be redirected to the Cookie Cicker games page</t>
+  </si>
+  <si>
+    <t>Other tests</t>
+  </si>
+  <si>
+    <t>Verify the correct value is displayed for Cookies when a user clicks on Click Cookie! Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the correct value is displayed for Factoires when a user buys a factory </t>
+  </si>
+  <si>
+    <t>Verify the correct values is displayed for. Money when user buys a factory</t>
+  </si>
+  <si>
+    <t>Verify the correct value is displayed for Money when a user sells a Cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify  the score is listed by the highest score </t>
+  </si>
+  <si>
+    <t>Verify Sell Cookies! accepts whole number</t>
+  </si>
+  <si>
+    <t>Verify Sell Cookies! does not accept a negative number</t>
+  </si>
+  <si>
+    <t>Verify Sell Cookies! does not accept AlphaNumeric values</t>
+  </si>
+  <si>
+    <t>Verify Sell Cookies! does not accept character values</t>
+  </si>
+  <si>
+    <t>Verify Sell Cookies! does not accept String number values e.g: "1"</t>
+  </si>
+  <si>
+    <t>Verify Buy Factories! accepts whole number</t>
+  </si>
+  <si>
+    <t>Verify Buy Factoriess! does not accept a negative number</t>
+  </si>
+  <si>
+    <t>Verify Buy Factories! does not accept AlphaNumeric values</t>
+  </si>
+  <si>
+    <t>Verify Buy Factories! does not accept character values</t>
+  </si>
+  <si>
+    <t>Verify Buy Factories! does not accept String number values e.g: "1"</t>
+  </si>
+  <si>
+    <t>Verify an existing user can enter their name and continue playing the game</t>
+  </si>
+  <si>
+    <t>If a user enters an existing username and clicks Start, The Game resets all the fields to 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,34 +540,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,19 +629,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,6 +717,447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2965247</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9C351A-A12F-2A6B-0F1D-1162B90DEB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32778700" y="8432800"/>
+          <a:ext cx="2850947" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>393701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2254916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618B4FCC-8E75-1361-8D47-E74B90002209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32829500" y="10718801"/>
+          <a:ext cx="2705100" cy="1861215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2992629</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1777999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7714F8F-C0C3-9D6A-92F1-7754682C5F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32804100" y="13320800"/>
+          <a:ext cx="2852929" cy="1703299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5054600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2844800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E45996-8113-3757-B4AB-5D5D66218BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32816800" y="23698200"/>
+          <a:ext cx="4902200" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5524500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3233595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EBE5A3-1059-883A-037A-694E448E76B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33032700" y="30441901"/>
+          <a:ext cx="5156200" cy="3157394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279455</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5549900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3352800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E85676-CE12-8E61-7F7E-04366952633D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32943855" y="26466800"/>
+          <a:ext cx="5270445" cy="3213100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5156200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2908300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1502B8-34C9-0BD5-D2D3-09A5937439D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32918400" y="20370800"/>
+          <a:ext cx="4902200" cy="2946400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3210247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0C9A60-C1D1-084A-ECA4-66B6AE02361F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32880300" y="15938501"/>
+          <a:ext cx="4533900" cy="3172146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,117 +1361,400 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="104.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3"/>
+    <col min="2" max="2" width="101.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44" style="3" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="65" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="147" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="F12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="147" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="C15" s="9"/>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="C16" s="9"/>
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="B40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -476,73 +1763,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842FB117-103E-C040-B677-9482B8BB7071}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="106" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="106" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="60.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="53.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="168" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="231" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="147" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.15">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" s="13" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" s="13" customFormat="1" ht="147" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" s="17" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="240" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="276" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
+    <row r="30" spans="2:8" ht="269" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="21" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="21" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{80A5DFF0-ABC8-1742-AEE5-7476D6B91939}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{9969372F-BB7C-C044-B748-6CF763589101}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{AAB78163-2ADE-6B4E-B918-45016B91167B}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{1B2839C7-E7DE-C342-911E-145F154F00B9}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{AF0C33DC-55C7-1244-8237-DE5FA7C8E52B}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{B16518D6-8892-7A44-9A06-3DF62F55A41B}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{9DF56D35-9C42-044F-9B22-39C4EDD6DC2C}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{82AD9EA6-6C54-F04B-985E-F728011EA752}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{96537B8A-E98E-3746-AD93-D0198F23B76E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/AireLogicTestsCaseBugs.xlsx
+++ b/AireLogicTestsCaseBugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-man/Documents/AireLogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71B28B-4E83-1C4C-B82B-0645D9D7A0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E327588-E414-0443-907B-94906E2D6685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Some more tests" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Test Cases</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>If a user enters an existing username and clicks Start, The Game resets all the fields to 0</t>
+  </si>
+  <si>
+    <t>Attachments</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -662,28 +665,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1363,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -1382,32 +1373,32 @@
     <col min="10" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1427,10 +1418,10 @@
       <c r="E2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
@@ -1439,10 +1430,10 @@
       <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
@@ -1451,41 +1442,41 @@
       <c r="E4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="147" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
@@ -1500,7 +1491,7 @@
       <c r="E8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1520,7 +1511,7 @@
       <c r="E10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1542,15 +1533,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="147" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
@@ -1565,7 +1556,7 @@
       <c r="E14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1585,43 +1576,43 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
@@ -1633,7 +1624,7 @@
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="9"/>
@@ -1763,12 +1754,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842FB117-103E-C040-B677-9482B8BB7071}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -1781,10 +1772,12 @@
     <col min="7" max="7" width="57.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="53.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="77" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="10" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -1810,18 +1803,24 @@
         <v>12</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="L1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1830,7 +1829,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="168" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="168" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1856,7 +1855,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="84" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1888,7 +1887,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="231" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="231" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1920,7 +1919,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="147" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="147" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1952,7 +1951,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="210" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1984,8 +1983,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="189" x14ac:dyDescent="0.15">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:12" ht="189" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2000,14 +1999,14 @@
       <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2016,11 +2015,11 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" s="13" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" s="11" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2048,11 +2047,11 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" s="13" customFormat="1" ht="147" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" s="11" customFormat="1" ht="147" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2064,27 +2063,27 @@
       <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" s="17" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
+    <row r="20" spans="2:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" s="11" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2096,10 +2095,10 @@
       <c r="F21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2115,7 +2114,7 @@
       <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2135,7 +2134,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2160,7 +2159,7 @@
       </c>
     </row>
     <row r="34" spans="2:2" ht="21" x14ac:dyDescent="0.15">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>71</v>
       </c>
     </row>
